--- a/Documents/UI Manual Test Cases.xlsx
+++ b/Documents/UI Manual Test Cases.xlsx
@@ -3,18 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -58,42 +63,56 @@
     <t>Press the About your PC button</t>
   </si>
   <si>
-    <t>redirects to About your PC page</t>
-  </si>
-  <si>
     <t>Cool CPU Stats button</t>
   </si>
   <si>
     <t>Press the Cool CPU Stats button</t>
   </si>
   <si>
-    <t>redirects to CPU stats page</t>
-  </si>
-  <si>
     <t>Download summarized report button</t>
   </si>
   <si>
     <t>Press the Download summarized report button</t>
   </si>
   <si>
-    <t>a pop-up to confirm starting of download appears</t>
-  </si>
-  <si>
     <t>Sys-Anatomy logo</t>
   </si>
   <si>
     <t>Press the Sys-Anatomy logo</t>
   </si>
   <si>
-    <t>same as TC No. 1</t>
+    <t>Open browser</t>
+  </si>
+  <si>
+    <t>Go to SysAnatomy URL</t>
+  </si>
+  <si>
+    <t>Redirects to Homepage</t>
+  </si>
+  <si>
+    <t>Pop-up to confirm starting of download appears</t>
+  </si>
+  <si>
+    <t>Redirects to CPU stats page</t>
+  </si>
+  <si>
+    <t>Redirects to About your PC page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -109,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -117,12 +136,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,23 +261,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -268,23 +296,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,13 +448,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
@@ -453,27 +464,27 @@
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -484,96 +495,216 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/UI Manual Test Cases.xlsx
+++ b/Documents/UI Manual Test Cases.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UI test cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Desktop Service test cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Test Case Number</t>
   </si>
@@ -45,33 +47,12 @@
     <t>Press the homepage button</t>
   </si>
   <si>
-    <t>redirects to Homepage</t>
-  </si>
-  <si>
-    <t>Dropdown process details button</t>
-  </si>
-  <si>
-    <t>Press the Dropdown process details button</t>
-  </si>
-  <si>
-    <t>a dropdown of live processes should appear</t>
-  </si>
-  <si>
     <t>About your PC button</t>
   </si>
   <si>
     <t>Press the About your PC button</t>
   </si>
   <si>
-    <t>Cool CPU Stats button</t>
-  </si>
-  <si>
-    <t>Press the Cool CPU Stats button</t>
-  </si>
-  <si>
-    <t>Download summarized report button</t>
-  </si>
-  <si>
     <t>Press the Download summarized report button</t>
   </si>
   <si>
@@ -93,10 +74,85 @@
     <t>Pop-up to confirm starting of download appears</t>
   </si>
   <si>
-    <t>Redirects to CPU stats page</t>
-  </si>
-  <si>
     <t>Redirects to About your PC page</t>
+  </si>
+  <si>
+    <t>Press the Process details button</t>
+  </si>
+  <si>
+    <t>Press the CPU Stats button</t>
+  </si>
+  <si>
+    <t>Redirects to CPU statistics page</t>
+  </si>
+  <si>
+    <t>HeatMap Hover</t>
+  </si>
+  <si>
+    <t>Hover on the blocks of the heat map</t>
+  </si>
+  <si>
+    <t>Pop-up balloon should appear for each block</t>
+  </si>
+  <si>
+    <t>Download button for Service</t>
+  </si>
+  <si>
+    <t>Click on the Download Service for Windows Button</t>
+  </si>
+  <si>
+    <t>A pop-up appears and service begins to download</t>
+  </si>
+  <si>
+    <t>Service installation</t>
+  </si>
+  <si>
+    <t>Service should install automatically once it finishes downloading</t>
+  </si>
+  <si>
+    <t>Service is installed, starts communicating with the server</t>
+  </si>
+  <si>
+    <t>Fetched data should be successfully sent to server for further proessing</t>
+  </si>
+  <si>
+    <t>Service Initialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service should fetch system data </t>
+  </si>
+  <si>
+    <t>Service is up and running.</t>
+  </si>
+  <si>
+    <t>Fetched data should be processed to send it over network into server</t>
+  </si>
+  <si>
+    <t>Data is received at the server for processing</t>
+  </si>
+  <si>
+    <t>A dropdown of live processes should appear</t>
+  </si>
+  <si>
+    <t>Process details button</t>
+  </si>
+  <si>
+    <t>CPU Stats button</t>
+  </si>
+  <si>
+    <t>Reports button</t>
+  </si>
+  <si>
+    <t>Collecting Data</t>
+  </si>
+  <si>
+    <t>Data is extracted from the server</t>
+  </si>
+  <si>
+    <t>Connection Establishment</t>
+  </si>
+  <si>
+    <t>Establishing data base connections</t>
   </si>
 </sst>
 </file>
@@ -113,7 +169,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -164,10 +220,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,28 +534,537 @@
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
     <col min="5" max="5" width="50" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E5:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -489,222 +1073,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
